--- a/testingauto/data - copia (2).xlsx
+++ b/testingauto/data - copia (2).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t>tcNum</t>
   </si>
@@ -36,9 +36,6 @@
     <t>expectedResult</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>mercury</t>
   </si>
   <si>
@@ -48,9 +45,6 @@
     <t>Flight Finder</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>user</t>
   </si>
   <si>
@@ -60,16 +54,7 @@
     <t>Welcome back to</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t/>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
 </sst>
 </file>
@@ -390,7 +375,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,88 +398,88 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
